--- a/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-16.xlsx
+++ b/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-16.xlsx
@@ -425,36 +425,28 @@
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>add M00_L04:</t>
+          <t>M00_L04:</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>xor jg M00_L03:</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>inc</t>
-        </is>
-      </c>
+          <t>jg M00_L03:</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr">
         <is>
-          <t>add add inc jg M00_L02:</t>
+          <t>jg M00_L02:</t>
         </is>
       </c>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr">
         <is>
-          <t>M00_L00: add inc</t>
+          <t>M00_L00:</t>
         </is>
       </c>
       <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>xor</t>
-        </is>
-      </c>
+      <c r="J1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -467,24 +459,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mov pop pop pop pop ret</t>
+          <t>mov add pop pop pop pop ret</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mov call cmp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>mov xor call cmp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inc</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>mov sub cmp jae mov sub cmp jae mov imul mov mov mov call cmp</t>
+          <t>mov sub cmp jae mov sub cmp jae mov imul mov add add inc mov mov call cmp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>jle mov mov shr cmp jbe lea movsxd mov mov mov call cmp jle</t>
+          <t>jle mov mov add shr cmp jbe lea inc movsxd mov mov mov call cmp jle</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -494,7 +490,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>cmp call mov mov call</t>
+          <t>cmp call mov mov xor call</t>
         </is>
       </c>
     </row>
